--- a/src/digitalmodel/tests/test_data/orcaflex_post_process/results/app_orcaflex_post_process_orcaflex_post_process_summary.xlsx
+++ b/src/digitalmodel/tests/test_data/orcaflex_post_process/results/app_orcaflex_post_process_orcaflex_post_process_summary.xlsx
@@ -481,7 +481,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>../test_data/orcaflex_post_process\orcaflex_test1.sim</t>
+          <t>c:\Users\NSO2003338\github\digitalmodel\src\digitalmodel\tests\test_data\orcaflex_post_process\orcaflex_test1.sim</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -491,7 +491,7 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>../test_data/orcaflex_post_process\orcaflex_test1.sim</t>
+          <t>c:\Users\NSO2003338\github\digitalmodel\src\digitalmodel\tests\test_data\orcaflex_post_process\orcaflex_test1.sim</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
@@ -518,7 +518,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>../test_data/orcaflex_post_process\orcaflex_test2.sim</t>
+          <t>c:\Users\NSO2003338\github\digitalmodel\src\digitalmodel\tests\test_data\orcaflex_post_process\orcaflex_test2.sim</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -528,7 +528,7 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>../test_data/orcaflex_post_process\orcaflex_test2.sim</t>
+          <t>c:\Users\NSO2003338\github\digitalmodel\src\digitalmodel\tests\test_data\orcaflex_post_process\orcaflex_test2.sim</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
